--- a/Barroc IT - Documentatie/Logboek Week 4 - Dagelijks - 29-09-2015.xlsx
+++ b/Barroc IT - Documentatie/Logboek Week 4 - Dagelijks - 29-09-2015.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9300" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="22995" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="29-09-2015" sheetId="3" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -1385,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -1933,7 +1933,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
